--- a/Advanced Office Program Class/send Email/customer.xlsx
+++ b/Advanced Office Program Class/send Email/customer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced Office Program Class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advanced Office Program Class\send Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,7 +74,7 @@
     <t>February</t>
   </si>
   <si>
-    <t>shakib215@gmail.com</t>
+    <t>mehedihasansep24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -407,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,10 +420,10 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,11 +440,9 @@
         <v>4</v>
       </c>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Customer 1</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>989698833</v>
@@ -452,18 +450,14 @@
       <c r="C2" s="1">
         <v>1000</v>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>imran444@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -480,7 +474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -497,7 +491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -514,154 +508,154 @@
         <v>16</v>
       </c>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
